--- a/Order Wise Summary/Month Septembar - 2021/M-S West Knit Wear/Running/PG-393915.xlsx
+++ b/Order Wise Summary/Month Septembar - 2021/M-S West Knit Wear/Running/PG-393915.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Store Documents\2021\Order Wise Summary\Month Septembar - 2021\M-S West Knit Wear\Running\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20055" windowHeight="7680"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'A One Polar'!$A$1:$Q$45</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -438,6 +443,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,51 +514,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,7 +576,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,7 +611,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -821,7 +826,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,45 +849,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
       <c r="Q1"/>
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -908,34 +913,34 @@
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -961,8 +966,8 @@
       <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -1574,26 +1579,26 @@
       <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25">
         <v>2600</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -1607,14 +1612,14 @@
       <c r="Q33"/>
     </row>
     <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -1628,14 +1633,14 @@
       <c r="Q34"/>
     </row>
     <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -1649,14 +1654,14 @@
       <c r="Q35"/>
     </row>
     <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -1670,14 +1675,14 @@
       <c r="Q36"/>
     </row>
     <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -1691,14 +1696,14 @@
       <c r="Q37"/>
     </row>
     <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -1712,14 +1717,14 @@
       <c r="Q38"/>
     </row>
     <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -1733,12 +1738,12 @@
       <c r="Q39"/>
     </row>
     <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -1835,25 +1840,45 @@
       <c r="C45" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
       <c r="O45" s="5"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:J45"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:F35"/>
@@ -1864,26 +1889,6 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0.2" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
